--- a/COMM/COMM.xlsx
+++ b/COMM/COMM.xlsx
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" t="n">
         <v>31</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="36">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" t="n">
         <v>25</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="V46" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="47">
@@ -4683,7 +4683,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" t="n">
         <v>25</v>
@@ -4700,17 +4700,13 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4737,7 +4733,7 @@
         </is>
       </c>
       <c r="V47" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
@@ -5403,7 +5399,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K55" t="n">
         <v>15</v>
@@ -5420,7 +5416,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -5453,7 +5449,7 @@
         </is>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56">
@@ -5489,7 +5485,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
         <v>31</v>
@@ -5506,17 +5502,13 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5543,7 +5535,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -5579,7 +5571,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K57" t="n">
         <v>31</v>
@@ -5596,7 +5588,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -5629,7 +5621,7 @@
         </is>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="58">
@@ -6863,7 +6855,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K71" t="n">
         <v>30</v>
@@ -6880,7 +6872,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -6913,7 +6905,7 @@
         </is>
       </c>
       <c r="V71" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="72">
@@ -6949,7 +6941,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K72" t="n">
         <v>30</v>
@@ -6966,7 +6958,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -6999,7 +6991,7 @@
         </is>
       </c>
       <c r="V72" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="73">
@@ -7218,7 +7210,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -7233,7 +7225,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">

--- a/COMM/COMM.xlsx
+++ b/COMM/COMM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,36 +566,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COMM 60</t>
+          <t>COMM 100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29593</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>32240</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -590,12 +617,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -605,7 +632,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Forsythe, C</t>
+          <t>Toomey, A</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -621,18 +648,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -646,24 +678,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20574</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>20580</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10:45am</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
         <v>31</v>
@@ -680,22 +724,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Trickett, D</t>
+          <t>Carrell, K</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -711,18 +751,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -736,36 +781,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20578</t>
+          <t>21786</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8:00am</t>
+          <t>11:00am</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9:15am</t>
+          <t>12:15pm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M W</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
         <v>31</v>
@@ -782,18 +827,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Eldridge, A</t>
+          <t>Carrell, K</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -809,18 +854,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -834,12 +884,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20580</t>
+          <t>22279</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -851,14 +901,14 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
         <v>31</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -868,18 +918,22 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Carrell, K</t>
+          <t>Aguirre, S</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -901,12 +955,21 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>3.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -920,24 +983,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21786</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>27082</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7:00pm</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9:50pm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>31</v>
@@ -954,18 +1029,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Carrell, K</t>
+          <t>Breit, C</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -981,18 +1056,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1006,24 +1086,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22279</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>26538</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5:30pm</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6:45pm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>31</v>
@@ -1040,22 +1132,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Carrell, K</t>
+          <t>Breit, C</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1071,18 +1159,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1096,36 +1189,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27082</t>
+          <t>25973</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7:00pm</t>
+          <t>12:30pm</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9:50pm</t>
+          <t>1:45pm</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M W</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>31</v>
@@ -1142,18 +1235,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Breit, C</t>
+          <t>Carrell, K</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1169,18 +1262,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1194,43 +1292,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26538</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5:30pm</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6:45pm</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>26507</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
         <v>31</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1240,18 +1326,22 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Breit, C</t>
+          <t>Arvilla Bohmer, E</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1269,16 +1359,25 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1292,24 +1391,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25973</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>26518</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2:00pm</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3:15pm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
         <v>31</v>
@@ -1326,22 +1437,18 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Forsythe, C</t>
+          <t>Perrone, T</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1357,18 +1464,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W10" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1382,24 +1494,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26507</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>32451</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4:00pm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5:15pm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
         <v>31</v>
@@ -1416,18 +1540,18 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Nia, H</t>
+          <t>Ayala, E</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1443,18 +1567,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>1.7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1468,12 +1597,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26518</t>
+          <t>27469</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1488,23 +1617,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M W</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>31</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1514,18 +1643,22 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Dejean, A</t>
+          <t>Morones, D</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1541,18 +1674,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1566,32 +1704,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27469</t>
+          <t>27918</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2:00pm</t>
+          <t>4:00pm</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:15pm</t>
+          <t>5:15pm</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M W</t>
+          <t>Tu Th</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1618,12 +1756,12 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Montenegro, D</t>
+          <t>Fiori, K</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1639,18 +1777,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
         <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1664,39 +1807,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27918</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3:30pm</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4:45pm</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>29246</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1710,18 +1841,18 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Arvilla Bohmer, E</t>
+          <t>Miller, M</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1739,16 +1870,25 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1762,24 +1902,36 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29246</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>32877</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1:45pm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
         <v>31</v>
@@ -1796,18 +1948,18 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Montenegro, D</t>
+          <t>Sherwood, J</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1823,18 +1975,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1848,27 +2005,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29632</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>33250</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8:45am</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>W F</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1877,23 +2046,23 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Lavariere, C</t>
+          <t>Aguirre, S</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1909,18 +2078,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>2.6</v>
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1934,36 +2108,48 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nine Week A M-F Session (1/10/2022 - 3/11/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20887</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>33251</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8:15am</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1971,19 +2157,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Navarro, M</t>
+          <t>Perrone, T</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1999,18 +2181,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>3.1</v>
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2024,36 +2211,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Six Week A2 Tuesday Session (1/11/2022 - 2/15/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30696</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1:00pm</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2:30pm</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
+          <t>29632</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SS224</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K18" t="n">
         <v>31</v>
@@ -2070,18 +2245,18 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Acosta-Licea, J</t>
+          <t>Lavariere, C</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2099,16 +2274,25 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2122,36 +2306,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Six Week 1 M-F Session (1/9/2023 - 2/16/2023)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32240</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>12:15pm</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>30696</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SS224</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K19" t="n">
         <v>31</v>
@@ -2168,7 +2340,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2201,16 +2373,25 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2224,12 +2405,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Six Week 1 M-F Session (1/9/2023 - 2/16/2023)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30190</t>
+          <t>30895</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2241,7 +2422,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
         <v>31</v>
@@ -2258,17 +2439,13 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2295,12 +2472,21 @@
         </is>
       </c>
       <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2314,43 +2500,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32241</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9:30am</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>20887</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K21" t="n">
         <v>31</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2360,18 +2534,22 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stop Enrl</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Bracamontes, A</t>
+          <t>Navarro, M</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2389,16 +2567,25 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>3.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2412,12 +2599,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20575</t>
+          <t>30190</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2429,14 +2616,14 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" t="n">
         <v>31</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2446,18 +2633,22 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Bracamontes, A</t>
+          <t>Toomey, A</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2479,12 +2670,21 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2498,24 +2698,36 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20579</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>32875</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K23" t="n">
         <v>31</v>
@@ -2532,18 +2744,18 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Benitez-Whitney, M</t>
+          <t>Bracamontes, A</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2559,18 +2771,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2584,24 +2801,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21656</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>20574</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8:00am</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
         <v>31</v>
@@ -2618,22 +2847,18 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Toomey, A</t>
+          <t>Ngo, K</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2649,18 +2874,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W24" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2674,12 +2904,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>30191</t>
+          <t>20575</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2691,7 +2921,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K25" t="n">
         <v>31</v>
@@ -2708,18 +2938,18 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Bracamontes, A</t>
+          <t>Wagner, H</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2741,12 +2971,21 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2760,24 +2999,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>27305</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>20578</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8:00am</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
         <v>31</v>
@@ -2794,22 +3045,18 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Morones, D</t>
+          <t>Bracamontes, A</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2827,16 +3074,25 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2850,12 +3106,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27451</t>
+          <t>20579</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2867,7 +3123,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>31</v>
@@ -2884,18 +3140,18 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Nia, H</t>
+          <t>Wagner, H</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2917,12 +3173,21 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.9</v>
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2936,36 +3201,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27468</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9:30am</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>21656</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K28" t="n">
         <v>31</v>
@@ -2982,18 +3235,22 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stop Enrl</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Hanniff, B</t>
+          <t>Forsythe, C</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3011,16 +3268,25 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3034,12 +3300,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27917</t>
+          <t>30191</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -3051,7 +3317,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" t="n">
         <v>31</v>
@@ -3068,18 +3334,18 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Wagner, H</t>
+          <t>Forsythe, C</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3101,12 +3367,21 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3120,12 +3395,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32242</t>
+          <t>27305</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -3137,7 +3412,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>31</v>
@@ -3154,18 +3429,18 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Eldridge, A</t>
+          <t>Trickett, D</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3187,12 +3462,21 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3206,24 +3490,36 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29243</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>32876</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1:00pm</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2:30pm</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
         <v>31</v>
@@ -3240,18 +3536,18 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Benitez-Whitney, M</t>
+          <t>Bracamontes, A</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3267,18 +3563,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3292,12 +3593,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29244</t>
+          <t>27451</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3309,7 +3610,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
         <v>31</v>
@@ -3326,22 +3627,18 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Hanniff, B</t>
+          <t>Escamilla, R</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3363,12 +3660,21 @@
         </is>
       </c>
       <c r="V32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W32" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3382,24 +3688,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29245</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>27468</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
         <v>31</v>
@@ -3416,18 +3734,18 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Nia, H</t>
+          <t>Hanniff, B</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3443,18 +3761,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>1.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3468,39 +3791,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>32438</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>9:30am</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>27917</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>LA103</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3509,23 +3820,23 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Arvilla Bohmer, E</t>
+          <t>Nia, H</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3543,16 +3854,25 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3566,12 +3886,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>29633</t>
+          <t>32242</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3583,7 +3903,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>31</v>
@@ -3600,18 +3920,18 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Lavariere, C</t>
+          <t>Nia, H</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3633,12 +3953,21 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2.6</v>
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3652,12 +3981,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Six Week 2 M-F Session (2/22/2022 - 4/8/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>30697</t>
+          <t>29243</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3669,14 +3998,14 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
         <v>31</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3686,22 +4015,18 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Rosenfeld, K</t>
+          <t>Escamilla, R</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3723,12 +4048,21 @@
         </is>
       </c>
       <c r="V36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W36" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3742,32 +4076,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Six Week B2 Tuesday Session (2/22/2022 - 4/5/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>24079</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1:00pm</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2:30pm</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
+          <t>29244</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>SS224</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -3803,7 +4125,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Acosta-Licea, J</t>
+          <t>Hanniff, B</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3821,16 +4143,25 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V37" t="n">
         <v>3.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3844,31 +4175,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30189</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+          <t>29245</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7:00pm</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10:00pm</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>31</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3878,22 +4221,18 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Gonzalez, R</t>
+          <t>Lavariere, C</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3909,18 +4248,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W38" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3934,12 +4278,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31343</t>
+          <t>29633</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -3951,14 +4295,14 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>31</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3968,22 +4312,18 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Gonzalez, R</t>
+          <t>Lavariere, C</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4005,12 +4345,21 @@
         </is>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4024,12 +4373,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Six Week 2 M-F Session (2/21/2023 - 4/7/2023)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>32451</t>
+          <t>24079</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4041,14 +4390,14 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K40" t="n">
         <v>31</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4058,22 +4407,18 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
           <t>17</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Wagner, H</t>
+          <t>Acosta-Licea, J</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4095,12 +4440,21 @@
         </is>
       </c>
       <c r="V40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W40" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4114,12 +4468,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Six Week C13 M-Th Session (4/11/2022 - 5/19/2022)</t>
+          <t>Six Week 2 M-F Session (2/21/2023 - 4/7/2023)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>30895</t>
+          <t>30697</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4131,7 +4485,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>31</v>
@@ -4148,22 +4502,18 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Gonzalez, R</t>
+          <t>Montenegro, D</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4185,12 +4535,21 @@
         </is>
       </c>
       <c r="V41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W41" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4204,39 +4563,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Six Week C2 Tuesday Session (4/12/2022 - 5/17/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>30698</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1:30pm</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>3:00pm</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
+          <t>30189</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4245,7 +4592,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4253,15 +4600,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Acosta-Licea, J</t>
+          <t>Eldridge, A</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4279,16 +4630,25 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4297,17 +4657,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COMM 103</t>
+          <t>COMM 100</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>26988</t>
+          <t>31343</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4319,10 +4679,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4336,22 +4696,18 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Matthews, N</t>
+          <t>Wagner, H</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4373,12 +4729,21 @@
         </is>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4387,17 +4752,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COMM 103</t>
+          <t>COMM 100</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Six Week 3 M-F Session (4/10/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>22149</t>
+          <t>30698</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -4409,10 +4774,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4426,18 +4791,18 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Gamble, M</t>
+          <t>Acosta-Licea, J</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4459,12 +4824,21 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4478,12 +4852,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21658</t>
+          <t>26988</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4502,7 +4876,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4517,7 +4891,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4527,7 +4901,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Gamble, M</t>
+          <t>Matthews, N</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4550,11 +4924,20 @@
       </c>
       <c r="V45" t="n">
         <v>2.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4568,43 +4951,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24624</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>12:30pm</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>22149</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>SS225</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K46" t="n">
         <v>25</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4614,18 +4985,22 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Trickett, D</t>
+          <t>Matthews, N</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4643,16 +5018,25 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4666,24 +5050,36 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20590</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+          <t>21658</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10:45am</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K47" t="n">
         <v>25</v>
@@ -4700,18 +5096,22 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Trickett, D</t>
+          <t>Ragg IV, F</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4727,18 +5127,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4747,32 +5152,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COMM 110</t>
+          <t>COMM 103</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nine Week A M-F Session (1/10/2022 - 3/11/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25632</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+          <t>20590</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8:00am</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>9:15am</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4786,18 +5203,18 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Hoppe-Nagao, A</t>
+          <t>Miller, M</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4813,18 +5230,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4833,32 +5255,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COMM 110</t>
+          <t>COMM 103</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>20581</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+          <t>33252</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2:00pm</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K49" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4872,22 +5306,18 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Toomey, A</t>
+          <t>Ragg IV, F</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4903,18 +5333,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4923,32 +5358,44 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COMM 110</t>
+          <t>COMM 103</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>25633</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>24624</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K50" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4962,22 +5409,18 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Hoppe-Nagao, A</t>
+          <t>Trickett, D</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4995,16 +5438,25 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5013,17 +5465,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COMM 115</t>
+          <t>COMM 110</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nine Week A M-F Session (1/10/2022 - 3/11/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29249</t>
+          <t>25632</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -5035,10 +5487,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K51" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -5052,18 +5504,18 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Rosenfeld, K</t>
+          <t>Hoppe-Nagao, A</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5085,12 +5537,21 @@
         </is>
       </c>
       <c r="V51" t="n">
-        <v>0.7000000000000001</v>
+        <v>2.1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5099,17 +5560,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COMM 115</t>
+          <t>COMM 110</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31826</t>
+          <t>20581</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5121,14 +5582,14 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K52" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5138,22 +5599,18 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Rosenfeld, K</t>
+          <t>Toomey, A</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5175,12 +5632,21 @@
         </is>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>1.9</v>
+      </c>
+      <c r="W52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5189,17 +5655,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COMM 120</t>
+          <t>COMM 110</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21864</t>
+          <t>25633</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -5211,7 +5677,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>31</v>
@@ -5228,22 +5694,18 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Toomey, A</t>
+          <t>Yee-Jung, K</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5265,12 +5727,21 @@
         </is>
       </c>
       <c r="V53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W53" t="n">
         <v>3.1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5279,17 +5750,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COMM 120</t>
+          <t>COMM 115</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nine Week A M-F Session (1/10/2022 - 3/11/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>29249</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5301,10 +5772,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5313,23 +5784,23 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Hoppe-Nagao, A</t>
+          <t>Rosenfeld, K</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5351,12 +5822,21 @@
         </is>
       </c>
       <c r="V54" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5365,44 +5845,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>COMM 120</t>
+          <t>COMM 115</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20582</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1:00pm</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2:30pm</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>31826</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>SS224</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -5416,18 +5884,18 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Hanniff, B</t>
+          <t>Rosenfeld, K</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5445,16 +5913,25 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V55" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5468,12 +5945,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20583</t>
+          <t>21864</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -5485,7 +5962,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K56" t="n">
         <v>31</v>
@@ -5502,18 +5979,18 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Hanniff, B</t>
+          <t>Yee-Jung, K</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -5535,12 +6012,21 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>2.8</v>
+      </c>
+      <c r="W56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5554,12 +6040,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>25059</t>
+          <t>30891</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -5571,7 +6057,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K57" t="n">
         <v>31</v>
@@ -5588,13 +6074,13 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5621,12 +6107,21 @@
         </is>
       </c>
       <c r="V57" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5640,39 +6135,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>29251</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>12:30pm</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>33287</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -5681,7 +6164,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5689,19 +6172,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Hanniff, B</t>
+          <t>Hoppe-Nagao, A</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5719,16 +6198,25 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5742,31 +6230,43 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>30193</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+          <t>20582</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1:00pm</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2:30pm</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K59" t="n">
         <v>31</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5776,22 +6276,18 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Wagner, H</t>
+          <t>Hanniff, B</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5807,18 +6303,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5827,32 +6328,44 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COMM 125</t>
+          <t>COMM 120</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23507</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+          <t>20583</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K60" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5861,18 +6374,18 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5895,16 +6408,25 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course Leaders Involved in Creating Change</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5913,17 +6435,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COMM 125</t>
+          <t>COMM 120</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>27919</t>
+          <t>25059</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -5935,10 +6457,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5952,18 +6474,18 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Sherwood, J</t>
+          <t>Hanniff, B</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5985,12 +6507,21 @@
         </is>
       </c>
       <c r="V61" t="n">
-        <v>2.3</v>
+        <v>2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5999,32 +6530,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COMM 130</t>
+          <t>COMM 120</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21866</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+          <t>29251</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -6038,22 +6581,18 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Matthews, N</t>
+          <t>Hanniff, B</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6069,18 +6608,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>1.1</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -6089,17 +6633,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COMM 130</t>
+          <t>COMM 120</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>31288</t>
+          <t>30193</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -6111,10 +6655,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -6128,22 +6672,18 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Ayala, E</t>
+          <t>Hoppe-Nagao, A</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6165,12 +6705,21 @@
         </is>
       </c>
       <c r="V63" t="n">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -6179,17 +6728,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>COMM 130</t>
+          <t>COMM 120</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>21463</t>
+          <t>33288</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -6201,10 +6750,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -6213,23 +6762,23 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Ayala, E</t>
+          <t>Hoppe-Nagao, A</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6251,12 +6800,21 @@
         </is>
       </c>
       <c r="V64" t="n">
-        <v>2.7</v>
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -6265,17 +6823,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>COMM 130</t>
+          <t>COMM 125</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>23938</t>
+          <t>27919</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -6287,7 +6845,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K65" t="n">
         <v>30</v>
@@ -6304,22 +6862,18 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Aguirre, S</t>
+          <t>Morones, D</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -6341,12 +6895,21 @@
         </is>
       </c>
       <c r="V65" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6355,27 +6918,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>COMM 130</t>
+          <t>COMM 125</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>25976</t>
+          <t>23507</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>9:30am</t>
+          <t>9:00am</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10:45am</t>
+          <t>10:30am</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -6385,11 +6948,11 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>30</v>
@@ -6406,18 +6969,18 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Sherwood, J</t>
+          <t>Fiori, K</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -6433,18 +6996,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
+      </c>
+      <c r="W66" t="n">
+        <v>3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -6458,36 +7026,36 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>28407</t>
+          <t>21866</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>12:30pm</t>
+          <t>4:00pm</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1:45pm</t>
+          <t>5:15pm</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M W</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K67" t="n">
         <v>30</v>
@@ -6504,18 +7072,18 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Aguirre, S</t>
+          <t>Morones, D</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -6531,18 +7099,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
+      </c>
+      <c r="W67" t="n">
+        <v>3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -6556,36 +7129,36 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29252</t>
+          <t>31288</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>9:30am</t>
+          <t>2:00pm</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10:45am</t>
+          <t>3:15pm</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M W</t>
+          <t>Tu Th</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>SS224</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K68" t="n">
         <v>30</v>
@@ -6602,18 +7175,18 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Ayala, E</t>
+          <t>Fiori, K</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -6629,18 +7202,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
+      </c>
+      <c r="W68" t="n">
+        <v>3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -6654,24 +7232,36 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nine Week A M-F Session (1/10/2022 - 3/11/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>30194</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+          <t>21463</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
         <v>30</v>
@@ -6688,18 +7278,18 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Dejean, A</t>
+          <t>Arvilla Bohmer, E</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -6715,18 +7305,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
+      </c>
+      <c r="W69" t="n">
+        <v>3</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -6740,36 +7335,36 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>20584</t>
+          <t>23938</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>7:00pm</t>
+          <t>9:30am</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>9:50pm</t>
+          <t>12:15pm</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>SS211</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K70" t="n">
         <v>30</v>
@@ -6786,18 +7381,18 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Forsythe, C</t>
+          <t>Nia, H</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -6813,18 +7408,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W70" t="n">
+        <v>3</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -6838,27 +7438,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20586</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+          <t>33253</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2:45pm</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3:50pm</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tu Th F</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>WHS *</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -6867,23 +7479,23 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Arvilla Bohmer, E</t>
+          <t>Carrell, K</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6899,18 +7511,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="n">
-        <v>2.3</v>
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6924,24 +7541,36 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>23937</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+          <t>25976</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10:45am</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K72" t="n">
         <v>30</v>
@@ -6958,18 +7587,18 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Arvilla Bohmer, E</t>
+          <t>Sherwood, J</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6985,18 +7614,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
+      </c>
+      <c r="W72" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -7010,24 +7644,36 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>24619</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+          <t>28407</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K73" t="n">
         <v>30</v>
@@ -7044,22 +7690,18 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Dejean, A</t>
+          <t>Perrone, T</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -7075,18 +7717,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -7100,24 +7747,36 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>22411</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+          <t>29252</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10:45am</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K74" t="n">
         <v>30</v>
@@ -7134,18 +7793,18 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Eldridge, A</t>
+          <t>Arvilla Bohmer, E</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -7161,18 +7820,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="n">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="W74" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -7186,12 +7850,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29254</t>
+          <t>30194</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -7210,7 +7874,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -7225,7 +7889,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7258,11 +7922,20 @@
       </c>
       <c r="V75" t="n">
         <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>3</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -7271,29 +7944,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>COMM 132</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>21657</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+          <t>20584</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7:00pm</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>9:50pm</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K76" t="n">
         <v>30</v>
@@ -7310,18 +7995,18 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Yu, J</t>
+          <t>Forsythe, C</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -7337,18 +8022,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
+      </c>
+      <c r="W76" t="n">
+        <v>3</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -7357,17 +8047,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COMM 132</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>26315</t>
+          <t>20586</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -7379,14 +8069,14 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
         <v>30</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7396,18 +8086,22 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Morones, D</t>
+          <t>Escamilla, R</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -7429,12 +8123,21 @@
         </is>
       </c>
       <c r="V77" t="n">
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="W77" t="n">
+        <v>3</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -7443,17 +8146,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COMM 140</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>24619</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -7472,7 +8175,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -7487,7 +8190,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -7497,7 +8200,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Yu, J</t>
+          <t>Montenegro, D</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -7520,11 +8223,20 @@
       </c>
       <c r="V78" t="n">
         <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>3</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -7533,44 +8245,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>COMM 231</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Open Enrollment Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>27190</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>4:00pm</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>6:00pm</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>22411</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K79" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -7584,18 +8284,22 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Gamble, M</t>
+          <t>Ayala, E</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -7604,7 +8308,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7613,16 +8317,25 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>0.3333333333333333</v>
+        <v>3</v>
+      </c>
+      <c r="W79" t="n">
+        <v>3</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -7631,44 +8344,44 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COMM 232</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Open Enrollment Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B6 M,W Session (1/30/2023 - 5/17/2023)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>27191</t>
+          <t>23937</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4:00pm</t>
+          <t>5:30pm</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>6:00pm</t>
+          <t>7:00pm</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M W</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -7682,18 +8395,18 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Gamble, M</t>
+          <t>Ayala, E</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -7702,25 +8415,30 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
           <t>Books</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W80" t="n">
+        <v>3</v>
+      </c>
+      <c r="X80" t="n">
         <v>0.2</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -7729,44 +8447,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>COMM 233</t>
+          <t>COMM 130</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Open Enrollment Session (1/10/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>30196</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>4:00pm</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>6:00pm</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>29254</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>SS207</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K81" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -7786,12 +8492,12 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Aguirre, S</t>
+          <t>Montenegro, D</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -7809,11 +8515,669 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V81" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
+      </c>
+      <c r="W81" t="n">
+        <v>3</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>COMM 132</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21657</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1:45pm</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>30</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Trickett, D</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
+        <v>54</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>COMM 132</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26315</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>15</v>
+      </c>
+      <c r="K83" t="n">
+        <v>30</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Judy, R</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>54</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>3</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>COMM 140</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24622</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>14</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Reotutar, M</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>54</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W84" t="n">
+        <v>3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>COMM 145</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>33254</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Reotutar, M</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>54</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>3</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>COMM 231</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Open Enrollment Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27190</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>20</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Aguirre, S</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>18</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>COMM 232</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Open Enrollment Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>27191</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Aguirre, S</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>36</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>COMM 233</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Open Enrollment Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30196</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>20</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Matthews, N</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>54</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>2</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/COMM/COMM.xlsx
+++ b/COMM/COMM.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,14 +600,14 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
         <v>31</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>3.1</v>
@@ -659,12 +659,12 @@
         <v>0.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
         <v>31</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="W3" t="n">
         <v>3.1</v>
@@ -762,12 +762,12 @@
         <v>0.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>31</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>3.1</v>
@@ -865,12 +865,12 @@
         <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>31</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W6" t="n">
         <v>3.1</v>
@@ -1067,12 +1067,12 @@
         <v>0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
         <v>31</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
         <v>3.1</v>
@@ -1170,12 +1170,12 @@
         <v>0.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
         <v>31</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W8" t="n">
         <v>3.1</v>
@@ -1273,12 +1273,12 @@
         <v>0.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>31</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
         <v>3.1</v>
@@ -1372,12 +1372,12 @@
         <v>0.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
         <v>31</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
         <v>3.1</v>
@@ -1475,12 +1475,12 @@
         <v>0.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
         <v>31</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W12" t="n">
         <v>3.1</v>
@@ -1685,12 +1685,12 @@
         <v>0.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" t="n">
         <v>31</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
         <v>3.1</v>
@@ -1788,12 +1788,12 @@
         <v>0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1824,14 +1824,14 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
         <v>31</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1841,13 +1841,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1874,7 +1878,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="W14" t="n">
         <v>3.1</v>
@@ -1883,12 +1887,12 @@
         <v>0.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1931,7 +1935,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
         <v>31</v>
@@ -1948,7 +1952,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1977,7 +1981,7 @@
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
         <v>3.1</v>
@@ -1986,12 +1990,12 @@
         <v>0.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2197,7 +2201,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2228,14 +2232,14 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
         <v>31</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2245,13 +2249,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2278,7 +2286,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="W18" t="n">
         <v>3.1</v>
@@ -2287,12 +2295,12 @@
         <v>0.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2330,7 +2338,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2345,7 +2353,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2391,7 +2399,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2422,7 +2430,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
         <v>31</v>
@@ -2439,7 +2447,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2472,7 +2480,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="W20" t="n">
         <v>3.1</v>
@@ -2481,12 +2489,12 @@
         <v>0.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2585,7 +2593,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2616,7 +2624,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
         <v>31</v>
@@ -2633,7 +2641,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2670,7 +2678,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>3.1</v>
@@ -2679,12 +2687,12 @@
         <v>0.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2727,7 +2735,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
         <v>31</v>
@@ -2744,7 +2752,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2773,7 +2781,7 @@
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
         <v>3.1</v>
@@ -2782,12 +2790,12 @@
         <v>0.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2890,7 +2898,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2921,7 +2929,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K25" t="n">
         <v>31</v>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2971,7 +2979,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="W25" t="n">
         <v>3.1</v>
@@ -2980,12 +2988,12 @@
         <v>0.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3028,7 +3036,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
         <v>31</v>
@@ -3045,7 +3053,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3078,7 +3086,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W26" t="n">
         <v>3.1</v>
@@ -3087,12 +3095,12 @@
         <v>0.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3187,7 +3195,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3286,7 +3294,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3317,7 +3325,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K29" t="n">
         <v>31</v>
@@ -3334,13 +3342,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3367,7 +3379,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="W29" t="n">
         <v>3.1</v>
@@ -3376,12 +3388,12 @@
         <v>0.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3476,7 +3488,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3519,7 +3531,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K31" t="n">
         <v>31</v>
@@ -3536,7 +3548,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3565,7 +3577,7 @@
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
         <v>3.1</v>
@@ -3574,12 +3586,12 @@
         <v>0.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3610,7 +3622,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
         <v>31</v>
@@ -3627,7 +3639,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3660,7 +3672,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="W32" t="n">
         <v>3.1</v>
@@ -3669,12 +3681,12 @@
         <v>0.2</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3717,7 +3729,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" t="n">
         <v>31</v>
@@ -3734,7 +3746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3763,7 +3775,7 @@
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="W33" t="n">
         <v>3.1</v>
@@ -3772,12 +3784,12 @@
         <v>0.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3872,7 +3884,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3903,7 +3915,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>31</v>
@@ -3920,7 +3932,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3953,7 +3965,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W35" t="n">
         <v>3.1</v>
@@ -3962,12 +3974,12 @@
         <v>0.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4062,7 +4074,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4161,7 +4173,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4204,7 +4216,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>31</v>
@@ -4221,7 +4233,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -4250,7 +4262,7 @@
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W38" t="n">
         <v>3.1</v>
@@ -4259,12 +4271,12 @@
         <v>0.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4295,7 +4307,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>31</v>
@@ -4312,7 +4324,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4345,7 +4357,7 @@
         </is>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W39" t="n">
         <v>3.1</v>
@@ -4354,12 +4366,12 @@
         <v>0.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4390,7 +4402,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K40" t="n">
         <v>31</v>
@@ -4407,7 +4419,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4440,7 +4452,7 @@
         </is>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
         <v>3.1</v>
@@ -4449,12 +4461,12 @@
         <v>0.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4485,7 +4497,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
         <v>31</v>
@@ -4502,7 +4514,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4535,7 +4547,7 @@
         </is>
       </c>
       <c r="V41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>3.1</v>
@@ -4544,12 +4556,12 @@
         <v>0.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4648,7 +4660,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4679,7 +4691,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>31</v>
@@ -4696,7 +4708,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -4729,7 +4741,7 @@
         </is>
       </c>
       <c r="V43" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W43" t="n">
         <v>3.1</v>
@@ -4738,12 +4750,12 @@
         <v>0.2</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4774,7 +4786,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K44" t="n">
         <v>31</v>
@@ -4791,7 +4803,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -4824,7 +4836,7 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="W44" t="n">
         <v>3.1</v>
@@ -4833,12 +4845,12 @@
         <v>0.2</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4869,14 +4881,14 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" t="n">
         <v>25</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4886,12 +4898,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4923,7 +4935,7 @@
         </is>
       </c>
       <c r="V45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W45" t="n">
         <v>2.5</v>
@@ -4932,12 +4944,12 @@
         <v>0.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4975,7 +4987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4990,7 +5002,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5036,7 +5048,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5143,7 +5155,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5186,7 +5198,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
         <v>25</v>
@@ -5203,7 +5215,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5232,7 +5244,7 @@
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W48" t="n">
         <v>2.5</v>
@@ -5241,12 +5253,12 @@
         <v>0.2</v>
       </c>
       <c r="Y48" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5289,7 +5301,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K49" t="n">
         <v>25</v>
@@ -5306,7 +5318,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5335,7 +5347,7 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
         <v>2.5</v>
@@ -5344,12 +5356,12 @@
         <v>0.2</v>
       </c>
       <c r="Y49" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5392,7 +5404,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K50" t="n">
         <v>25</v>
@@ -5409,7 +5421,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5420,7 +5432,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Trickett, D</t>
+          <t>Sherwood, J</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5442,7 +5454,7 @@
         </is>
       </c>
       <c r="V50" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W50" t="n">
         <v>2.5</v>
@@ -5451,12 +5463,12 @@
         <v>0.2</v>
       </c>
       <c r="Y50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5487,7 +5499,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" t="n">
         <v>31</v>
@@ -5504,7 +5516,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5537,7 +5549,7 @@
         </is>
       </c>
       <c r="V51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W51" t="n">
         <v>3.1</v>
@@ -5546,12 +5558,12 @@
         <v>0.2</v>
       </c>
       <c r="Y51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5582,7 +5594,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K52" t="n">
         <v>31</v>
@@ -5599,7 +5611,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5632,7 +5644,7 @@
         </is>
       </c>
       <c r="V52" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="W52" t="n">
         <v>3.1</v>
@@ -5641,12 +5653,12 @@
         <v>0.2</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5677,7 +5689,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
         <v>31</v>
@@ -5694,7 +5706,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5727,7 +5739,7 @@
         </is>
       </c>
       <c r="V53" t="n">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W53" t="n">
         <v>3.1</v>
@@ -5736,12 +5748,12 @@
         <v>0.2</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5772,7 +5784,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>30</v>
@@ -5789,7 +5801,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -5822,7 +5834,7 @@
         </is>
       </c>
       <c r="V54" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W54" t="n">
         <v>3</v>
@@ -5831,12 +5843,12 @@
         <v>0.2</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5867,7 +5879,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
         <v>30</v>
@@ -5884,7 +5896,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -5917,7 +5929,7 @@
         </is>
       </c>
       <c r="V55" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W55" t="n">
         <v>3</v>
@@ -5926,12 +5938,12 @@
         <v>0.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5962,7 +5974,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
         <v>31</v>
@@ -5979,7 +5991,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6012,7 +6024,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
         <v>3.1</v>
@@ -6021,12 +6033,12 @@
         <v>0.2</v>
       </c>
       <c r="Y56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -6121,7 +6133,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -6216,7 +6228,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -6259,7 +6271,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K59" t="n">
         <v>31</v>
@@ -6276,7 +6288,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -6305,7 +6317,7 @@
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W59" t="n">
         <v>3.1</v>
@@ -6314,12 +6326,12 @@
         <v>0.2</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -6362,7 +6374,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -6390,7 +6402,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Sherwood, J</t>
+          <t>Trickett, D</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6412,7 +6424,7 @@
         </is>
       </c>
       <c r="V60" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -6421,12 +6433,12 @@
         <v>0.2</v>
       </c>
       <c r="Y60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -6457,7 +6469,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K61" t="n">
         <v>31</v>
@@ -6474,7 +6486,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6507,7 +6519,7 @@
         </is>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="W61" t="n">
         <v>3.1</v>
@@ -6516,12 +6528,12 @@
         <v>0.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -6564,7 +6576,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K62" t="n">
         <v>31</v>
@@ -6581,7 +6593,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -6610,7 +6622,7 @@
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W62" t="n">
         <v>3.1</v>
@@ -6619,12 +6631,12 @@
         <v>0.2</v>
       </c>
       <c r="Y62" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -6719,7 +6731,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -6814,7 +6826,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -6845,7 +6857,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K65" t="n">
         <v>30</v>
@@ -6862,7 +6874,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -6895,7 +6907,7 @@
         </is>
       </c>
       <c r="V65" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W65" t="n">
         <v>3</v>
@@ -6904,12 +6916,12 @@
         <v>0.2</v>
       </c>
       <c r="Y65" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6952,7 +6964,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>30</v>
@@ -6969,7 +6981,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -6998,7 +7010,7 @@
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W66" t="n">
         <v>3</v>
@@ -7007,12 +7019,12 @@
         <v>0.2</v>
       </c>
       <c r="Y66" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -7055,7 +7067,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K67" t="n">
         <v>30</v>
@@ -7072,7 +7084,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -7101,7 +7113,7 @@
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="W67" t="n">
         <v>3</v>
@@ -7110,12 +7122,12 @@
         <v>0.2</v>
       </c>
       <c r="Y67" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -7158,7 +7170,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" t="n">
         <v>30</v>
@@ -7175,7 +7187,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -7204,7 +7216,7 @@
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W68" t="n">
         <v>3</v>
@@ -7213,12 +7225,12 @@
         <v>0.2</v>
       </c>
       <c r="Y68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -7261,7 +7273,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
         <v>30</v>
@@ -7278,13 +7290,17 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -7307,7 +7323,7 @@
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="W69" t="n">
         <v>3</v>
@@ -7316,12 +7332,12 @@
         <v>0.2</v>
       </c>
       <c r="Y69" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -7364,7 +7380,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>30</v>
@@ -7381,7 +7397,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -7410,7 +7426,7 @@
       </c>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W70" t="n">
         <v>3</v>
@@ -7419,12 +7435,12 @@
         <v>0.2</v>
       </c>
       <c r="Y70" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -7527,7 +7543,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -7630,7 +7646,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -7673,7 +7689,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K73" t="n">
         <v>30</v>
@@ -7690,7 +7706,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -7719,7 +7735,7 @@
       </c>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W73" t="n">
         <v>3</v>
@@ -7728,12 +7744,12 @@
         <v>0.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>5.5</v>
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -7776,7 +7792,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K74" t="n">
         <v>30</v>
@@ -7793,7 +7809,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -7822,7 +7838,7 @@
       </c>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="W74" t="n">
         <v>3</v>
@@ -7831,12 +7847,12 @@
         <v>0.2</v>
       </c>
       <c r="Y74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -7935,7 +7951,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -8038,7 +8054,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8076,7 +8092,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -8091,7 +8107,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -8137,7 +8153,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -8236,7 +8252,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -8274,7 +8290,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -8289,7 +8305,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8335,7 +8351,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -8378,7 +8394,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>30</v>
@@ -8395,7 +8411,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -8424,7 +8440,7 @@
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W80" t="n">
         <v>3</v>
@@ -8433,12 +8449,12 @@
         <v>0.2</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -8469,7 +8485,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K81" t="n">
         <v>30</v>
@@ -8486,13 +8502,17 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -8519,7 +8539,7 @@
         </is>
       </c>
       <c r="V81" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="W81" t="n">
         <v>3</v>
@@ -8528,12 +8548,12 @@
         <v>0.2</v>
       </c>
       <c r="Y81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -8576,7 +8596,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K82" t="n">
         <v>30</v>
@@ -8593,7 +8613,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -8622,7 +8642,7 @@
       </c>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="n">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="W82" t="n">
         <v>3</v>
@@ -8631,12 +8651,12 @@
         <v>0.2</v>
       </c>
       <c r="Y82" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -8667,7 +8687,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K83" t="n">
         <v>30</v>
@@ -8684,7 +8704,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -8717,7 +8737,7 @@
         </is>
       </c>
       <c r="V83" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="W83" t="n">
         <v>3</v>
@@ -8726,12 +8746,12 @@
         <v>0.2</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -8762,7 +8782,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K84" t="n">
         <v>30</v>
@@ -8779,7 +8799,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -8812,7 +8832,7 @@
         </is>
       </c>
       <c r="V84" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W84" t="n">
         <v>3</v>
@@ -8821,12 +8841,12 @@
         <v>0.2</v>
       </c>
       <c r="Y84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -8921,7 +8941,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -8948,7 +8968,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
         <v>20</v>
@@ -8965,7 +8985,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -8994,7 +9014,7 @@
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="W86" t="n">
         <v>0.6666666666666666</v>
@@ -9003,12 +9023,12 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -9095,7 +9115,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
